--- a/target/test-classes/testdata/DataTest.xlsx
+++ b/target/test-classes/testdata/DataTest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sunthuiowi3blable\Documents\Daihoc\Nam4\TTTN\DoMinhHuyen_BCTT\SeleniumJavaAnhtester\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{634BA8F0-75D0-4727-AD60-9B6437EE5CBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E9A5F8D-10FE-4419-AC31-15B3AD31265E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" activeTab="1" xr2:uid="{3AA89EAE-B553-48E0-B311-B6B2E80098F0}"/>
   </bookViews>
@@ -275,6 +275,21 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -286,21 +301,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -639,90 +639,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="7">
         <v>123456</v>
       </c>
-      <c r="D2" s="11"/>
+      <c r="D2" s="7"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11">
+      <c r="B3" s="7"/>
+      <c r="C3" s="7">
         <v>123456</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11" t="s">
+      <c r="C4" s="7"/>
+      <c r="D4" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11" t="s">
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="7">
         <v>123456</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="7" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="7">
         <v>123</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="7" t="s">
         <v>20</v>
       </c>
     </row>
@@ -742,8 +742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{323C0AF3-86CB-4A34-B21C-7DCA33F81123}">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -760,126 +760,126 @@
     <col min="10" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="8" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="5">
         <v>2</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5"/>
-      <c r="B3" s="9" t="s">
+    <row r="3" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="10"/>
+      <c r="B3" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="5">
         <v>2</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="5">
         <v>2</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="I4" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="7"/>
-      <c r="C5" s="9" t="s">
+    <row r="5" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="12"/>
+      <c r="C5" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="5">
         <v>2</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="I5" s="5" t="s">
         <v>19</v>
       </c>
     </row>
